--- a/biology/Médecine/Voie_d'administration/Voie_d'administration.xlsx
+++ b/biology/Médecine/Voie_d'administration/Voie_d'administration.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Voie_d%27administration</t>
+          <t>Voie_d'administration</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine et pharmacologie, les voies d'administration désignent l'ensemble des moyens d'administration d'un médicament ou, plus généralement, d'une substance chimique.
 Les voies d'administration sont essentiellement fonction de la forme galénique du médicament, et sont typiquement divisées en trois grandes catégories.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Voie_d%27administration</t>
+          <t>Voie_d'administration</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Voie cutanéomuqueuse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D'une manière générale, une administration par voie cutano-muqueuse désigne une absorption par la peau, les muqueuses ou les membranes. Ces voies peuvent être utilisées pour des traitements à visée locale ou générale (systémique). Les médicaments administrables par cette voie sont les patchs, les gels, les crèmes, les pommades, les lotions, les collyres, les sprays, les gouttes ou encore les ovules.
 L'absorption se fait :
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Voie_d%27administration</t>
+          <t>Voie_d'administration</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,7 +568,9 @@
           <t>Voie entérale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D'une manière générale, une administration par voie entérale désigne une absorption par le tube digestif. 
 Les médicaments administrables par voie entérale peuvent être administrés :
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Voie_d%27administration</t>
+          <t>Voie_d'administration</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,7 +611,9 @@
           <t>Voie parentérale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'une manière générale, une administration par voie parentérale désigne les formes d'introduction d'un médicament dans l'organisme autre que par la voie digestive. L'introduction est corollaire d'une effraction d'un tissu biologique. Cela désigne par exemple une administration par perfusion.
 Les médicaments administrables par voie parentérale sont les solutions physiologiques, suspensions injectables pour la voie générale, ou encore d'autres types de fluides en injection locale.
